--- a/public/support files/unique-charts.xlsx
+++ b/public/support files/unique-charts.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="174"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="363" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="93">
   <si>
     <t>CHAPTER NAME</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>SFS</t>
+  </si>
+  <si>
+    <t>1: Zone Heating &amp; Cooling Control</t>
+  </si>
+  <si>
+    <t>2: Air Side Economizer Option</t>
+  </si>
+  <si>
+    <t>3: AHU Heating &amp; Cooling Control</t>
+  </si>
+  <si>
+    <t>4: Central Utility Plant Cooling Control</t>
+  </si>
+  <si>
+    <t>5: Central Utility Plant Heating Control</t>
+  </si>
+  <si>
+    <t>6: AHU Minimum Outdoor-Air Operation</t>
+  </si>
+  <si>
+    <t>7: AHU Static Pressure Control</t>
+  </si>
+  <si>
+    <t>8: AHU Discharge-Air Temperature Control</t>
+  </si>
+  <si>
+    <t>9: Occupancy Schedulting</t>
   </si>
 </sst>
 </file>
@@ -326,18 +353,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor indexed="55"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,6 +384,60 @@
         <bgColor indexed="34"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -376,14 +451,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,6 +540,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -817,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -853,16 +939,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -870,119 +972,132 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -990,337 +1105,298 @@
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1336,28 +1412,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/support files/unique-charts.xlsx
+++ b/public/support files/unique-charts.xlsx
@@ -328,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,8 +352,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +394,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -438,6 +444,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -451,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -466,7 +484,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,7 +1444,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1459,13 +1478,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1479,11 +1498,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -1494,13 +1513,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -1514,11 +1533,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -1532,11 +1551,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -1550,11 +1569,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
@@ -1568,11 +1587,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -1586,11 +1605,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
@@ -1604,11 +1623,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
@@ -1619,11 +1638,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
@@ -1635,13 +1654,13 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
@@ -1655,13 +1674,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
@@ -1673,11 +1692,11 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
@@ -1691,11 +1710,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
@@ -1707,11 +1726,11 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
@@ -1725,13 +1744,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D17" t="s">
@@ -1743,11 +1762,11 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
@@ -1759,11 +1778,11 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
@@ -1777,13 +1796,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
@@ -1797,11 +1816,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
@@ -1815,13 +1834,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D22" t="s">
@@ -1833,11 +1852,11 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
@@ -1849,11 +1868,11 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D24" t="s">
@@ -1864,13 +1883,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
@@ -1882,11 +1901,11 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D26" t="s">
@@ -1898,11 +1917,11 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D27" t="s">
@@ -1913,20 +1932,20 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D29" t="s">

--- a/public/support files/unique-charts.xlsx
+++ b/public/support files/unique-charts.xlsx
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1533,11 +1533,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -1551,11 +1551,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">

--- a/public/support files/unique-charts.xlsx
+++ b/public/support files/unique-charts.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="363" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="363"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,21 +1429,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1964,4 +1952,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>